--- a/planning_BAP.xlsx
+++ b/planning_BAP.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jarno\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jarno\Documents\GitHub\BachelorProefGarbage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BA9A5BB-F79E-44FE-B1D0-495464CC51BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C47D5D9A-2BAC-43E5-AAA2-F32AC20671FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{059AEED8-786F-47F7-8E5B-D68FAE7BED21}"/>
   </bookViews>
@@ -507,7 +507,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Startdatum+Blad1!$B$3:$B$22</c:v>
+            <c:v>Startdatum</c:v>
           </c:tx>
           <c:spPr>
             <a:noFill/>
@@ -672,7 +672,7 @@
                   <c:v>44608</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44628</c:v>
+                  <c:v>44614</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>44614</c:v>
@@ -735,74 +735,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Blad1!$A$3:$A$22</c:f>
-              <c:strCache>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>Het vastleggen van het verloop van de individuele puzzel.</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Het vastleggen van de flow van de puzzels onderling en het algemene verloop van de escape room.</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Vastleggen van de benodigde/beschikbare/te bestellen hardware (sensoren, actuatoren, modules, …).</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Opstellen BOM voor het bestellen van de hardware.</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Vastleggen van het protocol en het framework voor datacommunicatie tussen de puzzels..</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Bekijken hoe de ontvangen/ reeds beschikbare componenten aangestuurd/geprogrammeerd kunnen worden en welke libraries hiervoor gebruikt moeten worden.</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>beschikbare componenten</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>ontvangen componenten </c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Ontwerpen van het vuilbak-openingsmechanisme</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Het maken van de 3D modellen van het "vuilnis".</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Het maken van de designs voor de laser cutter voor het vervaardigen van de "vuilbak".</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Het schrijven van het programma</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Breadboardimplementatie maken.</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>initieel PCB design maken om te etsen.</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>PCB etsen maken en testen.</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Initieel PCB design maken voor bestelling op pcb-way.</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>PCB design aanpassen op basis van het gegeven commentaar.</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>samenstellen geheel</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>Het maken van de presentatie.</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>Het schrijven van de documentatie.</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Blad1!$D$3:$D$22</c:f>
@@ -810,71 +742,71 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="15">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>21</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>22</c:v>
-                </c:pt>
                 <c:pt idx="18">
-                  <c:v>36</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>36</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-CBC9-47CC-89B0-1B306D13BF98}"/>
+              <c16:uniqueId val="{00000005-272B-42A4-A07A-E917CB7BF82A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1938,8 +1870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EFB29FC-42DD-45CC-9830-45C01CB650DF}">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1950,7 +1882,7 @@
     <col min="4" max="4" width="12.85546875" customWidth="1"/>
     <col min="5" max="5" width="15.28515625" customWidth="1"/>
     <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="74.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="86.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1992,8 +1924,8 @@
         <v>2</v>
       </c>
       <c r="D3" s="24">
-        <f>E3-B3+1</f>
-        <v>2</v>
+        <f>E3-B3</f>
+        <v>1</v>
       </c>
       <c r="E3" s="14">
         <v>44608</v>
@@ -2012,8 +1944,8 @@
         <v>4</v>
       </c>
       <c r="D4" s="24">
-        <f t="shared" ref="D4:D22" si="0">E4-B4+1</f>
-        <v>2</v>
+        <f t="shared" ref="D4:D22" si="0">E4-B4</f>
+        <v>1</v>
       </c>
       <c r="E4" s="7">
         <v>44608</v>
@@ -2033,7 +1965,7 @@
       </c>
       <c r="D5" s="24">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E5" s="14">
         <v>44616</v>
@@ -2053,7 +1985,7 @@
       </c>
       <c r="D6" s="24">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E6" s="7">
         <v>44621</v>
@@ -2073,7 +2005,7 @@
       </c>
       <c r="D7" s="24">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E7" s="14">
         <v>44621</v>
@@ -2093,7 +2025,7 @@
       </c>
       <c r="D8" s="24">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8" s="16">
         <v>44628</v>
@@ -2113,10 +2045,10 @@
       </c>
       <c r="D9" s="24">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E9" s="7">
-        <v>44608</v>
+        <v>44614</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -2126,14 +2058,14 @@
         <v>13</v>
       </c>
       <c r="B10" s="23">
-        <v>44628</v>
+        <v>44614</v>
       </c>
       <c r="C10" s="13">
         <v>3</v>
       </c>
       <c r="D10" s="24">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>E10-B10</f>
+        <v>14</v>
       </c>
       <c r="E10" s="17">
         <v>44628</v>
@@ -2157,7 +2089,7 @@
       </c>
       <c r="D11" s="24">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E11" s="20">
         <v>44621</v>
@@ -2175,7 +2107,7 @@
       </c>
       <c r="D12" s="24">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12" s="14">
         <v>44649</v>
@@ -2195,7 +2127,7 @@
       </c>
       <c r="D13" s="24">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E13" s="14">
         <v>44677</v>
@@ -2219,7 +2151,7 @@
       </c>
       <c r="D14" s="24">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E14" s="9">
         <v>44663</v>
@@ -2243,7 +2175,7 @@
       </c>
       <c r="D15" s="24">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E15" s="14">
         <v>44635</v>
@@ -2263,7 +2195,7 @@
       </c>
       <c r="D16" s="24">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E16" s="7">
         <v>44640</v>
@@ -2283,7 +2215,7 @@
       </c>
       <c r="D17" s="24">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E17" s="28">
         <v>44649</v>
@@ -2303,7 +2235,7 @@
       </c>
       <c r="D18" s="24">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E18" s="7">
         <v>44656</v>
@@ -2323,7 +2255,7 @@
       </c>
       <c r="D19" s="24">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E19" s="14">
         <v>44663</v>
@@ -2343,7 +2275,7 @@
       </c>
       <c r="D20" s="24">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E20" s="28">
         <v>44691</v>
@@ -2367,7 +2299,7 @@
       </c>
       <c r="D21" s="24">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E21" s="7">
         <v>44698</v>
@@ -2387,7 +2319,7 @@
       </c>
       <c r="D22" s="24">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E22" s="14">
         <v>44698</v>
